--- a/data/hd.xlsx
+++ b/data/hd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec5eed8c1d9fe52b/Documents/Rorschach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6691DDAE-B4EA-4FD0-902B-D202A39EFDBA}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B4B01D0-A52E-4415-B219-386BE54FA739}"/>
   <bookViews>
     <workbookView xWindow="7580" yWindow="40" windowWidth="28800" windowHeight="15370" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="109">
   <si>
     <t>DQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,10 @@
   </si>
   <si>
     <t>FMa.(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHR.AB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +546,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9584DC3-3EF6-46C8-816C-715482D54D92}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1332,7 +1332,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">

--- a/data/hd.xlsx
+++ b/data/hd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec5eed8c1d9fe52b/Documents/Rorschach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B4B01D0-A52E-4415-B219-386BE54FA739}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DF3C74-390F-44E4-B37E-5661706B8D32}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="40" windowWidth="28800" windowHeight="15370" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
+    <workbookView xWindow="850" yWindow="1690" windowWidth="16820" windowHeight="18070" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,6 +546,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9584DC3-3EF6-46C8-816C-715482D54D92}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1615,6 +1619,12 @@
       <c r="G27" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1638,12 +1648,6 @@
       <c r="G28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1667,6 +1671,12 @@
       <c r="G29" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1689,12 +1699,6 @@
       </c>
       <c r="G30" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">

--- a/data/hd.xlsx
+++ b/data/hd.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="311" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DF3C74-390F-44E4-B37E-5661706B8D32}"/>
   <bookViews>
-    <workbookView xWindow="850" yWindow="1690" windowWidth="16820" windowHeight="18070" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
+    <workbookView xWindow="850" yWindow="1690" windowWidth="19480" windowHeight="18070" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9584DC3-3EF6-46C8-816C-715482D54D92}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I29"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A21" activeCellId="1" sqref="A6:XFD6 A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
